--- a/biology/Zoologie/Dolycoris_baccarum/Dolycoris_baccarum.xlsx
+++ b/biology/Zoologie/Dolycoris_baccarum/Dolycoris_baccarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Punaise des baies
 Dolycoris baccarum, la punaise des baies ou pentatome des baies, est une espèce d'insectes  hémiptères du sous-ordre des hétéroptères (punaises) et de la famille des Pentatomidae. On le rencontre en Europe.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s’agit d’une punaise « à bouclier ». Son métathorax est de couleur rougeâtre assez variable et son écusson (scutellum) plutôt de teinte ocre. On la reconnaît notamment grâce à la présence de soies sur le pronotum et la tête, au clypéus distinctement plus court que les jugas ainsi qu'à ses antennes composées de cinq segments de couleur noir et blanc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit d’une punaise « à bouclier ». Son métathorax est de couleur rougeâtre assez variable et son écusson (scutellum) plutôt de teinte ocre. On la reconnaît notamment grâce à la présence de soies sur le pronotum et la tête, au clypéus distinctement plus court que les jugas ainsi qu'à ses antennes composées de cinq segments de couleur noir et blanc.
 Le mâle et la femelle sont très ressemblants.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très polyphage, elle se nourrit de fruits ou graines de nombreuses plantes, arbres ou arbustes. Des dégâts peuvent être occasionnés dans certaines cultures de céréales, légumineuses ou crucifères et sur des arbres fruitiers[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très polyphage, elle se nourrit de fruits ou graines de nombreuses plantes, arbres ou arbustes. Des dégâts peuvent être occasionnés dans certaines cultures de céréales, légumineuses ou crucifères et sur des arbres fruitiers.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La punaise des baies est très commune en France. On la retrouve à travers l'Europe et l'Asie, jusqu'au Japon vers l'est et l'Inde vers le sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La punaise des baies est très commune en France. On la retrouve à travers l'Europe et l'Asie, jusqu'au Japon vers l'est et l'Inde vers le sud.
 </t>
         </is>
       </c>
@@ -606,11 +624,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dolycoris baccarum a été décrit pour la première fois par le naturaliste suédois Carl von Linné en 1758, sous le protonyme de Cimex baccarum.
-Synonymes
-Cimex baccarum Linnaeus, 1758
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolycoris baccarum a été décrit pour la première fois par le naturaliste suédois Carl von Linné en 1758, sous le protonyme de Cimex baccarum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dolycoris_baccarum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolycoris_baccarum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cimex baccarum Linnaeus, 1758
 Cimex verbasci De Geer, 1773
 Cimex subater Harris, 1780
 Cimex albidus Gmelin, 1790
